--- a/biology/Botanique/Forêts_mixtes_tempérées_des_Açores/Forêts_mixtes_tempérées_des_Açores.xlsx
+++ b/biology/Botanique/Forêts_mixtes_tempérées_des_Açores/Forêts_mixtes_tempérées_des_Açores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_temp%C3%A9r%C3%A9es_des_A%C3%A7ores</t>
+          <t>Forêts_mixtes_tempérées_des_Açores</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes tempérées des Açores forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui recouvre tout l'archipel des Açores. Elles appartiennent au biome des forêts de feuillus et forêts mixtes tempérées dans l'écozone paléarctique.
 </t>
